--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>255.3095938202198</v>
+        <v>495.1404882914134</v>
       </c>
       <c r="R2">
-        <v>2297.786344381978</v>
+        <v>4456.26439462272</v>
       </c>
       <c r="S2">
-        <v>0.0118425354356372</v>
+        <v>0.0169973726212929</v>
       </c>
       <c r="T2">
-        <v>0.0118425354356372</v>
+        <v>0.0169973726212929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>0.5573089244557777</v>
+        <v>0.9176766455502224</v>
       </c>
       <c r="R3">
-        <v>5.015780320102</v>
+        <v>8.259089809952002</v>
       </c>
       <c r="S3">
-        <v>2.585077429997347E-05</v>
+        <v>3.150235591538831E-05</v>
       </c>
       <c r="T3">
-        <v>2.585077429997346E-05</v>
+        <v>3.15023559153883E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>10.888368131472</v>
+        <v>7.048677278042668</v>
       </c>
       <c r="R4">
-        <v>97.995313183248</v>
+        <v>63.438095502384</v>
       </c>
       <c r="S4">
-        <v>0.0005050569526346088</v>
+        <v>0.0002419696975207138</v>
       </c>
       <c r="T4">
-        <v>0.0005050569526346086</v>
+        <v>0.0002419696975207138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>60.51483975237621</v>
+        <v>70.91960027733157</v>
       </c>
       <c r="R5">
-        <v>544.633557771386</v>
+        <v>638.276402495984</v>
       </c>
       <c r="S5">
-        <v>0.002806980824441958</v>
+        <v>0.002434555243556431</v>
       </c>
       <c r="T5">
-        <v>0.002806980824441958</v>
+        <v>0.002434555243556431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>15653.1554423519</v>
+        <v>18436.11983376422</v>
       </c>
       <c r="R6">
-        <v>140878.3989811671</v>
+        <v>165925.0785038779</v>
       </c>
       <c r="S6">
-        <v>0.7260716106740704</v>
+        <v>0.632882193873163</v>
       </c>
       <c r="T6">
-        <v>0.7260716106740702</v>
+        <v>0.6328821938731631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>34.16888137019689</v>
@@ -883,10 +883,10 @@
         <v>307.5199323317721</v>
       </c>
       <c r="S7">
-        <v>0.001584923552491249</v>
+        <v>0.001172962467089084</v>
       </c>
       <c r="T7">
-        <v>0.001584923552491248</v>
+        <v>0.001172962467089084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>667.5711489145921</v>
+        <v>262.4512881504527</v>
       </c>
       <c r="R8">
-        <v>6008.140340231328</v>
+        <v>2362.061593354074</v>
       </c>
       <c r="S8">
-        <v>0.03096528754966036</v>
+        <v>0.009009528497710051</v>
       </c>
       <c r="T8">
-        <v>0.03096528754966034</v>
+        <v>0.009009528497710051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>3710.194274485355</v>
+        <v>2640.628832005408</v>
       </c>
       <c r="R9">
-        <v>33391.7484703682</v>
+        <v>23765.65948804867</v>
       </c>
       <c r="S9">
-        <v>0.1720973603507856</v>
+        <v>0.09064851950808189</v>
       </c>
       <c r="T9">
-        <v>0.1720973603507855</v>
+        <v>0.09064851950808191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>679.897221070181</v>
+        <v>5830.46484510016</v>
       </c>
       <c r="R10">
-        <v>6119.074989631629</v>
+        <v>52474.18360590144</v>
       </c>
       <c r="S10">
-        <v>0.03153703240303853</v>
+        <v>0.2001504338081715</v>
       </c>
       <c r="T10">
-        <v>0.03153703240303853</v>
+        <v>0.2001504338081715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>1.484130632716889</v>
+        <v>10.80598647772267</v>
       </c>
       <c r="R11">
-        <v>13.357175694452</v>
+        <v>97.25387829950401</v>
       </c>
       <c r="S11">
-        <v>6.884139897007059E-05</v>
+        <v>0.0003709520490564371</v>
       </c>
       <c r="T11">
-        <v>6.884139897007056E-05</v>
+        <v>0.000370952049056437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>28.99605582307201</v>
+        <v>83.00081703255201</v>
       </c>
       <c r="R12">
-        <v>260.964502407648</v>
+        <v>747.007353292968</v>
       </c>
       <c r="S12">
-        <v>0.001344982040981373</v>
+        <v>0.002849283886765733</v>
       </c>
       <c r="T12">
-        <v>0.001344982040981373</v>
+        <v>0.002849283886765732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>161.1528605937151</v>
+        <v>835.1048763400187</v>
       </c>
       <c r="R13">
-        <v>1450.375745343436</v>
+        <v>7515.943887060168</v>
       </c>
       <c r="S13">
-        <v>0.007475075392110975</v>
+        <v>0.02866780054685378</v>
       </c>
       <c r="T13">
-        <v>0.007475075392110972</v>
+        <v>0.02866780054685378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>229.9818179052167</v>
+        <v>365.4222312561867</v>
       </c>
       <c r="R14">
-        <v>2069.83636114695</v>
+        <v>3288.80008130568</v>
       </c>
       <c r="S14">
-        <v>0.01066770655713249</v>
+        <v>0.0125443545329908</v>
       </c>
       <c r="T14">
-        <v>0.01066770655713248</v>
+        <v>0.0125443545329908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>0.5020215561166668</v>
+        <v>0.6772612123597779</v>
       </c>
       <c r="R15">
-        <v>4.518194005050001</v>
+        <v>6.095350911238</v>
       </c>
       <c r="S15">
-        <v>2.328626973552653E-05</v>
+        <v>2.324928269984775E-05</v>
       </c>
       <c r="T15">
-        <v>2.328626973552652E-05</v>
+        <v>2.324928269984775E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>9.808196626800001</v>
+        <v>5.202045559302333</v>
       </c>
       <c r="R16">
-        <v>88.2737696412</v>
+        <v>46.818410033721</v>
       </c>
       <c r="S16">
-        <v>0.0004549531977022684</v>
+        <v>0.0001785778154994343</v>
       </c>
       <c r="T16">
-        <v>0.0004549531977022681</v>
+        <v>0.0001785778154994342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>54.51151540468334</v>
+        <v>52.33988976051344</v>
       </c>
       <c r="R17">
-        <v>490.6036386421501</v>
+        <v>471.059007844621</v>
       </c>
       <c r="S17">
-        <v>0.002528516626307521</v>
+        <v>0.00179674381363304</v>
       </c>
       <c r="T17">
-        <v>0.00252851662630752</v>
+        <v>0.00179674381363304</v>
       </c>
     </row>
   </sheetData>
